--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1200,7 +1200,7 @@
         <v>97.8</v>
       </c>
       <c r="E23">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F23">
         <v>107.2</v>
@@ -1270,7 +1270,7 @@
         <v>111.8</v>
       </c>
       <c r="G25">
-        <v>113.5</v>
+        <v>113.4</v>
       </c>
       <c r="H25">
         <v>116.1</v>
@@ -1302,7 +1302,7 @@
         <v>102.8</v>
       </c>
       <c r="G26">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="H26">
         <v>107.1</v>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1299,10 +1299,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F26">
-        <v>102.8</v>
+        <v>102.7</v>
       </c>
       <c r="G26">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="H26">
         <v>107.1</v>

--- a/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
+++ b/7/1/1/1/Series desestacionalizadas 1996 a 2021 - Anual.xlsx
@@ -1200,7 +1200,7 @@
         <v>97.8</v>
       </c>
       <c r="E23">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="F23">
         <v>107.2</v>
